--- a/AfDD_2024_Annex_Table_Tab01.xlsx
+++ b/AfDD_2024_Annex_Table_Tab01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F137C972-45C8-4D6E-B200-0BCA86BE4B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF12181-F75A-47B7-AFD5-FF55A8F12A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{8A3D077F-9F0C-4078-BC1A-473DB710216F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53019716-1D05-4103-8FCE-FD2A358D8A7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
     <t>For aggregate inflation figures, median values are taken weighted by GDP in PPP dollars.</t>
   </si>
   <si>
-    <t>Source: World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, International Labour Organization - ILOSTAT (retrieved 22/05/2023), United Nations Development Programme Human Development Data Online (2021-22 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -12/06/2024), IMF World Economic Outlook Database April 2024.</t>
+    <t>Source: World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, United Nations Development Programme Human Development Data Online (2021-22 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -12/06/2024), IMF World Economic Outlook Database April 2024.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
@@ -1617,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB632D12-AF35-4E89-A6AA-F25F0E3A5D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D4F718-B445-4860-B964-D67B1E803FC6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4175,10 +4175,10 @@
         <v>4.12826963973865</v>
       </c>
       <c r="I63" s="90">
-        <v>34.567010309278302</v>
+        <v>34.550515463917499</v>
       </c>
       <c r="J63" s="88">
-        <v>2.1690721649484499</v>
+        <v>2.1649484536082499</v>
       </c>
       <c r="K63" s="88">
         <v>0.78188970588234996</v>
@@ -4216,10 +4216,10 @@
         <v>5.5249252851337998</v>
       </c>
       <c r="I64" s="99">
-        <v>44.280952380952399</v>
+        <v>44.185714285714297</v>
       </c>
       <c r="J64" s="97">
-        <v>2.6285714285714299</v>
+        <v>2.6380952380952398</v>
       </c>
       <c r="K64" s="97">
         <v>0.74048484848484997</v>
@@ -4257,10 +4257,10 @@
         <v>0.22785476224234</v>
       </c>
       <c r="I65" s="106">
-        <v>33.654545454545499</v>
+        <v>33.6727272727273</v>
       </c>
       <c r="J65" s="104">
-        <v>5.3772727272727296</v>
+        <v>5.35</v>
       </c>
       <c r="K65" s="104">
         <v>0.67203448275861999</v>
@@ -4298,10 +4298,10 @@
         <v>4.12826963973865</v>
       </c>
       <c r="I66" s="114">
-        <v>36.569230769230799</v>
+        <v>36.558041958041997</v>
       </c>
       <c r="J66" s="112">
-        <v>10.8118881118881</v>
+        <v>10.8090909090909</v>
       </c>
       <c r="K66" s="112">
         <v>0.71938095238095001</v>
@@ -4708,10 +4708,10 @@
         <v>3.7125000000000101</v>
       </c>
       <c r="I76" s="122">
-        <v>37.1142857142857</v>
+        <v>37.171428571428599</v>
       </c>
       <c r="J76" s="120">
-        <v>2.22857142857143</v>
+        <v>2.1428571428571401</v>
       </c>
       <c r="K76" s="120">
         <v>0.72629999999999995</v>
@@ -4995,10 +4995,10 @@
         <v>4.12826963973865</v>
       </c>
       <c r="I83" s="90">
-        <v>34.647126436781598</v>
+        <v>34.628735632183897</v>
       </c>
       <c r="J83" s="88">
-        <v>1.82643678160919</v>
+        <v>1.8218390804597699</v>
       </c>
       <c r="K83" s="88">
         <v>0.78688596491228002</v>
@@ -5241,10 +5241,10 @@
         <v>0.22785476224234</v>
       </c>
       <c r="I89" s="106">
-        <v>37.840000000000003</v>
+        <v>37.851428571428599</v>
       </c>
       <c r="J89" s="104">
-        <v>1.51428571428572</v>
+        <v>1.49714285714286</v>
       </c>
       <c r="K89" s="104">
         <v>0.75495555555556004</v>
@@ -5282,10 +5282,10 @@
         <v>4.12826963973865</v>
       </c>
       <c r="I90" s="114">
-        <v>31.98</v>
+        <v>31.93</v>
       </c>
       <c r="J90" s="112">
-        <v>0.29749999999999999</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="K90" s="112">
         <v>0.88356896551723996</v>
@@ -5873,12 +5873,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{1A3B23D4-F422-48E1-AA91-3D744C8D4E47}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CB8090C5-A10C-4A5D-B149-8CA7CB6CD0A1}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{923C8DA7-77EA-4541-9EE4-10563ABD26F1}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1C0F2A0E-50BA-4B49-87BE-818FE4872356}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{04073777-900B-4748-9E99-6FA55F6EDBE6}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{E01C94ED-87FF-45D2-A1AD-A9A9D0258340}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B9BC09A1-2017-4AF6-9B57-C256454633F7}"/>
+    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B49F4B66-6247-476C-8DB7-AA249F287635}"/>
+    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0E28DC1E-5899-4D59-98CF-480558A87562}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{717BE083-A294-4C1B-954C-A4C1F489A99F}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{0D179229-5F74-49C1-8711-1EBB3EB43D34}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{8BF6E565-F972-4B5B-9AE4-25F634FBA09E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab01.xlsx
+++ b/AfDD_2024_Annex_Table_Tab01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1DDD0A-7547-4E00-BAF1-B2C5C4EBE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A6953E-F630-420B-8F9C-C52842A859D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AAE44588-E43E-46CE-9190-E66166D0BAC4}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{489ECD31-BF0A-451E-B801-EF928B9A9429}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -1711,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39A1401-2EE0-46D7-9E4A-CB2FD5A8143F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A4531F-E40A-4D32-87E3-F579E132163D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6583,12 +6583,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0EB9F75C-3ACF-4080-B372-474F9E8DCC01}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CDFC3C5F-CC5F-4F77-94E1-E128C2962429}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{E68D25BE-54B6-415C-9400-98EC0223B60C}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{AA8EB26A-D740-4D30-929B-AD71721A265B}"/>
-    <hyperlink ref="B113" r:id="rId5" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{66B5F152-4F42-4458-AF4B-AE9F9A079C03}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{4ED911D6-66EF-485D-AD9F-1FF87A3F703E}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{33878D55-1489-47A0-9863-3F23503C1560}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{930BF25C-2E1D-441F-958D-A4E3BD04EEE5}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{85F28040-6404-4AFE-AA13-12BE305AEECF}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{B627CBA0-4B2A-4EE4-9354-20BEE5E1FCB1}"/>
+    <hyperlink ref="B113" r:id="rId5" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{580C68DC-1E3E-49A2-BA6F-59AF47590548}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{009EC45B-E767-4FCD-AF9D-AACD1901956C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId7"/>
